--- a/src/main/resources/com/relative/QuskyOro/Matrices/SeguroTerceraEdad.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/SeguroTerceraEdad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\Bre Actual\QuskiBre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908BFCB-CEAA-44C6-83CD-E3DC68ABD860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CCA21-0784-4660-88F3-C27C28933C2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="13560" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>opcion.getPlazo()==$param</t>
   </si>
   <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.Cliente</t>
-  </si>
-  <si>
     <t>RuleTable SegurosTerceraEdad</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>0.06,11.0</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.Opcion,com.relative.QuskyOro.ObjetosNegocio.Cliente</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I36"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -885,10 +885,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -900,7 +900,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -959,22 +959,22 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>8</v>
@@ -1023,16 +1023,16 @@
         <v>882</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1052,16 +1052,16 @@
         <v>882</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1081,16 +1081,16 @@
         <v>882</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1110,16 +1110,16 @@
         <v>882</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="H13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1139,16 +1139,16 @@
         <v>882</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1168,16 +1168,16 @@
         <v>882</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="H15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1197,16 +1197,16 @@
         <v>882</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1226,16 +1226,16 @@
         <v>882</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="H17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1255,16 +1255,16 @@
         <v>882</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="H18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1284,16 +1284,16 @@
         <v>888</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1313,16 +1313,16 @@
         <v>888</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1342,16 +1342,16 @@
         <v>888</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1371,16 +1371,16 @@
         <v>888</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1400,16 +1400,16 @@
         <v>888</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1429,16 +1429,16 @@
         <v>888</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="H24" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1458,16 +1458,16 @@
         <v>888</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1487,16 +1487,16 @@
         <v>888</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="H26" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1516,16 +1516,16 @@
         <v>888</v>
       </c>
       <c r="F27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="H27" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1545,16 +1545,16 @@
         <v>1199</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1574,16 +1574,16 @@
         <v>1199</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1603,16 +1603,16 @@
         <v>1199</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1632,16 +1632,16 @@
         <v>1199</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1661,16 +1661,16 @@
         <v>1199</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1690,16 +1690,16 @@
         <v>1199</v>
       </c>
       <c r="F33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="H33" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1719,16 +1719,16 @@
         <v>1199</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1748,16 +1748,16 @@
         <v>1199</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="H35" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1777,16 +1777,16 @@
         <v>1199</v>
       </c>
       <c r="F36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="H36" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/relative/QuskyOro/Matrices/SeguroTerceraEdad.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/SeguroTerceraEdad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CCA21-0784-4660-88F3-C27C28933C2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2534EF7E-EB17-4505-BC55-C4E49D0275FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <t>0.06,11.0</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Opcion,com.relative.QuskyOro.ObjetosNegocio.Cliente</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Opcion,com.relative.QuskiOro.ObjetosNegocio.Cliente</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
